--- a/experiment/nonconvex/MitsosBarton2006Ex314/compare/Alpha-Zero/MitsosBarton2006Ex314_Alpha-Zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/compare/Alpha-Zero/MitsosBarton2006Ex314_Alpha-Zero.xlsx
@@ -473,13 +473,13 @@
         <v>-8.39750000331764</v>
       </c>
       <c r="E2">
-        <v>0.0180632</v>
+        <v>0.0272741</v>
       </c>
       <c r="F2">
-        <v>0.0310551</v>
+        <v>0.1429264</v>
       </c>
       <c r="G2">
-        <v>0.02106598987341772</v>
+        <v>0.0474979219047619</v>
       </c>
       <c r="H2">
         <v>5638</v>
